--- a/data/weekly_summaries.xlsx
+++ b/data/weekly_summaries.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -50,16 +53,18 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +441,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>date_start</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>date_end</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -474,38 +479,16 @@
           <t>fat%_avg</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>calories_avg</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>carbohydrates_avg</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>protein_avg</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>fat_avg</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>06/21-06/27</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44374</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44368</v>
       </c>
       <c r="D2" t="n">
         <v>102.6</v>
@@ -525,30 +508,16 @@
       <c r="I2" t="n">
         <v>28.71857152666364</v>
       </c>
-      <c r="J2" t="n">
-        <v>2850.571428571428</v>
-      </c>
-      <c r="K2" t="n">
-        <v>329.7142857142857</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143.5714285714286</v>
-      </c>
-      <c r="M2" t="n">
-        <v>102.4285714285714</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>06/28-07/04</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44381</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44375</v>
       </c>
       <c r="D3" t="n">
         <v>101.5</v>
@@ -568,30 +537,16 @@
       <c r="I3" t="n">
         <v>28.26785768781389</v>
       </c>
-      <c r="J3" t="n">
-        <v>2728.142857142857</v>
-      </c>
-      <c r="K3" t="n">
-        <v>302</v>
-      </c>
-      <c r="L3" t="n">
-        <v>157.5714285714286</v>
-      </c>
-      <c r="M3" t="n">
-        <v>95.85714285714286</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>07/05-07/11</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44388</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44382</v>
       </c>
       <c r="D4" t="n">
         <v>100.5</v>
@@ -611,30 +566,16 @@
       <c r="I4" t="n">
         <v>27.24033355712891</v>
       </c>
-      <c r="J4" t="n">
-        <v>2442</v>
-      </c>
-      <c r="K4" t="n">
-        <v>289.6666666666667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>119.6666666666667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>07/12-07/18</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44395</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44389</v>
       </c>
       <c r="D5" t="n">
         <v>99.59999999999999</v>
@@ -654,17 +595,121 @@
       <c r="I5" t="n">
         <v>26.13500022888184</v>
       </c>
-      <c r="J5" t="n">
-        <v>2707.428571428572</v>
-      </c>
-      <c r="K5" t="n">
-        <v>301.5714285714286</v>
-      </c>
-      <c r="L5" t="n">
-        <v>150.8571428571429</v>
-      </c>
-      <c r="M5" t="n">
-        <v>93.85714285714286</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44390</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44396</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99.04285714285713</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.8571428571428754</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.12242889404297</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44397</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44403</v>
+      </c>
+      <c r="D7" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>97.72857142857143</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.299999999999997</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.7714285714285722</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.44671412876674</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44404</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44410</v>
+      </c>
+      <c r="D8" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>97.22857142857143</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2714285714285722</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26.20271437508719</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>97</v>
+      </c>
+      <c r="F9" t="n">
+        <v>96.77142857142857</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1714285714285779</v>
+      </c>
+      <c r="I9" t="n">
+        <v>25.92557144165039</v>
       </c>
     </row>
   </sheetData>

--- a/data/weekly_summaries.xlsx
+++ b/data/weekly_summaries.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,35 @@
         <v>25.92557144165039</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44424</v>
+      </c>
+      <c r="D10" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>95.44999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3499999999999943</v>
+      </c>
+      <c r="I10" t="n">
+        <v>24.62199974060059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
